--- a/Document/강동민/기획서/시스템 기획서/미션 시스템_강동민.xlsx
+++ b/Document/강동민/기획서/시스템 기획서/미션 시스템_강동민.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\대학\3학년 2학기\팀 프로젝트\기획서\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\강동민\기획서\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="339">
   <si>
     <t>작성자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1372,6 +1372,18 @@
   </si>
   <si>
     <t>섬멸 미션에 스폰될 몬스터들의 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 미션 진행 순서도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 내용, 보상 레이아웃을 클릭한채로 레이아웃 밖으로 이동시 클릭 취소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 내용, 보상 레이아웃을 클릭할시 상호작용됨.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2388,13 +2400,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2447,13 +2459,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2504,13 +2516,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2561,13 +2573,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2618,13 +2630,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3777,10 +3789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M112"/>
+  <dimension ref="B2:M117"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4523,49 +4535,33 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="8" t="s">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="16"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B92" s="17"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="18"/>
-    </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B93" s="17"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="18"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="16"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B94" s="17"/>
@@ -4749,43 +4745,74 @@
       <c r="K107" s="12"/>
       <c r="L107" s="18"/>
     </row>
-    <row r="108" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="19"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
-      <c r="L108" s="21"/>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B108" s="17"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="18"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>145</v>
-      </c>
+      <c r="B109" s="17"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="18"/>
+    </row>
+    <row r="110" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="19"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="21"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="8" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4794,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P155"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5809,8 +5836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
